--- a/xlsx/科学心理学_intext.xlsx
+++ b/xlsx/科学心理学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>科学心理学</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>心理學史</t>
+    <t>心理学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Subfields_of_psychology</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>異常心理學</t>
+    <t>异常心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E9%81%97%E4%BC%A0%E5%AD%A6</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物心理學</t>
+    <t>生物心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知心理學</t>
+    <t>认知心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較心理學</t>
+    <t>比较心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cross-cultural_psychology</t>
@@ -107,43 +107,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>發展心理學</t>
+    <t>发展心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗心理學</t>
+    <t>实验心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學心理學</t>
+    <t>数学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經心理學</t>
+    <t>神经心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人格心理學</t>
+    <t>人格心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>正面心理學</t>
+    <t>正面心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantitative_psychology</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -167,43 +167,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%A1%8C%E7%82%BA%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>應用行為分析</t>
+    <t>应用行为分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床心理學</t>
+    <t>临床心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社區心理學</t>
+    <t>社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>消費行為</t>
+    <t>消费行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E5%95%86%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>諮商心理學</t>
+    <t>谘商心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>批判社區心理學</t>
+    <t>批判社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育心理學</t>
+    <t>教育心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_psychology</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人因工程學</t>
+    <t>人因工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>法庭心理學</t>
+    <t>法庭心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康心理學</t>
+    <t>健康心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%88%87%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業與組織心理學</t>
+    <t>工业与组织心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ontological_hermeneutics</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教心理學</t>
+    <t>宗教心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/School_psychology</t>
@@ -299,19 +299,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>運動心理學</t>
+    <t>运动心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>交通心理學</t>
+    <t>交通心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學科列表</t>
+    <t>心理学学科列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychology_organizations</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>心理學家</t>
+    <t>心理学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychotherapies</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E6%B4%BE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學派列表</t>
+    <t>心理学学派列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_psychology</t>
@@ -371,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>生理學家</t>
+    <t>生理学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AF%E7%89%B9</t>
@@ -389,13 +389,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%AF%94%E9%8C%AB%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>萊比錫大學</t>
+    <t>莱比锡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>實驗室</t>
+    <t>实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98</t>
   </si>
   <si>
-    <t>意識</t>
+    <t>意识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F</t>
@@ -417,9 +417,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>心理學</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E7%96%BE%E7%97%85</t>
@@ -2719,7 +2716,7 @@
         <v>133</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
         <v>61</v>
@@ -2745,10 +2742,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2774,10 +2771,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -2803,10 +2800,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
